--- a/코드 파일 기술서.xlsx
+++ b/코드 파일 기술서.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\source\repos\Unreal\UE5\TopDownPortfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442336EE-FE91-4880-8D68-7A1F5D525CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B16F8CA-B266-4154-B609-5E82C3593E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D21DC332-3B34-4EF0-AFA4-A1E5433A082F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D21DC332-3B34-4EF0-AFA4-A1E5433A082F}"/>
   </bookViews>
   <sheets>
     <sheet name="코드 작성 양식" sheetId="2" r:id="rId1"/>
     <sheet name="WidgetMGR" sheetId="4" r:id="rId2"/>
     <sheet name="BuffMGR" sheetId="6" r:id="rId3"/>
     <sheet name="MontagMGR" sheetId="1" r:id="rId4"/>
-    <sheet name="SkillMGR" sheetId="5" r:id="rId5"/>
-    <sheet name="TargetMGR" sheetId="3" r:id="rId6"/>
+    <sheet name="AIActionMGR" sheetId="7" r:id="rId5"/>
+    <sheet name="SkillMGR" sheetId="5" r:id="rId6"/>
+    <sheet name="TargetMGR" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
   <si>
     <t>개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +469,46 @@
       </rPr>
       <t xml:space="preserve"> (마지막이면 배열 끝이므로 종료)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_AIActionMGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 의 Action을 Que에 넣고 관리 및 수행하는 MGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수행할 Action에 대해 (Montage 관련  Attack 이나 등등) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복을 관리하고 우선순위에 따라서 수행 하기 위해 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriorityQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void E_PlayAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action 등록 / Return 등록 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Action 수행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool E_RegisterAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller보단 Character의 컴포넌트로 만들고 ActionDT 넣어주고 관리하는 걸루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,6 +1117,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1083,15 +1133,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2158,6 +2199,7 @@
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="J8:O8"/>
     <mergeCell ref="C5:O5"/>
+    <mergeCell ref="C6:O6"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:O16"/>
     <mergeCell ref="C9:I9"/>
@@ -2167,7 +2209,6 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:O12"/>
     <mergeCell ref="F13:O13"/>
-    <mergeCell ref="C6:O6"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:O14"/>
@@ -2989,7 +3030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4A6877-2A3B-46FC-BB2A-C20230D72B69}">
   <dimension ref="B1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C31" sqref="C31:O31"/>
     </sheetView>
   </sheetViews>
@@ -3487,109 +3528,109 @@
       <c r="B28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="36"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="11"/>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="39"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="36"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="11"/>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="39"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="36"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="11"/>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="39"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="11"/>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="39"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="36"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="11"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="39"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="2:15" ht="17.25" thickBot="1">
       <c r="B34" s="10"/>
@@ -3656,6 +3697,438 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DB5503-53E6-472D-8F10-69E21DD08461}">
+  <dimension ref="B1:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="2"/>
+      <c r="C4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="2"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="6"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="6"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="6"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="6"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="6"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="3"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="6"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="2:15" ht="17.25" thickBot="1">
+      <c r="B22" s="10"/>
+      <c r="C22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:O18"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="J11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBC34AE-CE54-4DB4-B6C8-1E8F5594BE9D}">
   <dimension ref="B1:O21"/>
   <sheetViews>
@@ -4069,7 +4542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF70DE72-D01A-446C-8863-B94658AF56DE}">
   <dimension ref="B1:O20"/>
   <sheetViews>
